--- a/BZK Projects.xlsx
+++ b/BZK Projects.xlsx
@@ -8,12 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winston\Desktop\leerdocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A94ED353-C781-4ED2-B163-4BCF222B1D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5E93CE-2677-4ABF-B513-2DDA9145DF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="2475" windowWidth="16995" windowHeight="11385" xr2:uid="{B850E935-9505-4BBD-A200-59FA45B684DD}"/>
+    <workbookView xWindow="4275" yWindow="810" windowWidth="20535" windowHeight="13485" firstSheet="3" xr2:uid="{4E37C4F2-DB9C-4BAF-987F-8545C243F6F4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Agenda" sheetId="9" r:id="rId1"/>
+    <sheet name="Follow up" sheetId="10" r:id="rId2"/>
+    <sheet name="Participatiemarkt" sheetId="1" r:id="rId3"/>
+    <sheet name="Ghana Charity" sheetId="5" r:id="rId4"/>
+    <sheet name="Waanzinnige woensdagen" sheetId="3" r:id="rId5"/>
+    <sheet name="Diewertje Blok leest voor" sheetId="4" r:id="rId6"/>
+    <sheet name="Deadline mail Inge" sheetId="2" r:id="rId7"/>
+    <sheet name="Yoga Molenlokaal" sheetId="6" r:id="rId8"/>
+    <sheet name="Miep Diesel" sheetId="7" r:id="rId9"/>
+    <sheet name="Coornhert" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,10 +42,125 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>Projectbespreken met Marcom en Facilitair</t>
+  </si>
+  <si>
+    <t>Budget van 1000 euro</t>
+  </si>
+  <si>
+    <t>Reserveren in Axxerion en Teamup</t>
+  </si>
+  <si>
+    <t>Overige programmering op die dag informeren</t>
+  </si>
+  <si>
+    <t>PD Managers en PF zelf informeren</t>
+  </si>
+  <si>
+    <t>Koffie met Jasper regelen</t>
+  </si>
+  <si>
+    <t>PARTICIPATIEMARKT</t>
+  </si>
+  <si>
+    <t>Formulier invullen voor Marcom  -&gt; Facilitair</t>
+  </si>
+  <si>
+    <t>WAANZINNIGE WOENSDAGEN</t>
+  </si>
+  <si>
+    <t>Laten vermelden op de website</t>
+  </si>
+  <si>
+    <t>DIEWERTJE BLOK LEES VOOR</t>
+  </si>
+  <si>
+    <t>Koffie regelen met Jasper</t>
+  </si>
+  <si>
+    <t>Afstemmen met organisator</t>
+  </si>
+  <si>
+    <t>Vermelden in persoonlijke agenda</t>
+  </si>
+  <si>
+    <t>Winston aanwezig</t>
+  </si>
+  <si>
+    <t>Taallessen informeren</t>
+  </si>
+  <si>
+    <t>Iedereen reminden</t>
+  </si>
+  <si>
+    <t>Reageren op mail Gertrude en Roxane</t>
+  </si>
+  <si>
+    <t>Gecommuniceerd met pmarkt team en met intern BZK</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Oktober</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Januari</t>
+  </si>
+  <si>
+    <t>Februari</t>
+  </si>
+  <si>
+    <t>Maart</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Mei</t>
+  </si>
+  <si>
+    <t>Juni</t>
+  </si>
+  <si>
+    <t>Mail naar mike omtrent groepsreservering Kim Aukema</t>
+  </si>
+  <si>
+    <t>Vraag naar interviewer Haarlem uit de Kunst</t>
+  </si>
+  <si>
+    <t>Activiteit Kinderboekenweek</t>
+  </si>
+  <si>
+    <t>Participatiemarkt</t>
+  </si>
+  <si>
+    <t>Diewertje Blok leest voor</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -64,8 +188,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,13 +507,342 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265D9C9C-C9D8-43F2-A580-0F0C28085EF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3109D076-5B58-43E4-A950-210B56145C2B}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44842</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>44628</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158F83A1-34C1-47D9-9AAD-8CF891FCF9AA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10A56B1-79DE-4B76-ADC2-096CA1370A80}">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9F90C6-9CAD-41BE-BDF4-37263C53DD67}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C545208-6700-4DB5-9797-1D3CB9FF45DD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405BC820-BF65-420E-819E-7B7165D76265}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990FBC71-2E94-4D20-9B80-FC1B0817A83C}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3">
+        <v>44842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BD44D8-C074-42AB-BA0F-8C7795DEDD19}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688846D0-0079-42A5-B8D7-B84254B25631}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BB61BD-F7B1-4348-8B7A-8F058D21BCE3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BZK Projects.xlsx
+++ b/BZK Projects.xlsx
@@ -1,28 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winston\Desktop\leerdocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winston.brandon\OneDrive - de Bibliotheek Zuid-Kennemerland\Bureaublad\leerdocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5E93CE-2677-4ABF-B513-2DDA9145DF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299B2720-4D1C-4B47-80D5-33D49318497C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="810" windowWidth="20535" windowHeight="13485" firstSheet="3" xr2:uid="{4E37C4F2-DB9C-4BAF-987F-8545C243F6F4}"/>
+    <workbookView xWindow="-27090" yWindow="1710" windowWidth="21600" windowHeight="11715" firstSheet="2" activeTab="6" xr2:uid="{4E37C4F2-DB9C-4BAF-987F-8545C243F6F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda" sheetId="9" r:id="rId1"/>
-    <sheet name="Follow up" sheetId="10" r:id="rId2"/>
-    <sheet name="Participatiemarkt" sheetId="1" r:id="rId3"/>
-    <sheet name="Ghana Charity" sheetId="5" r:id="rId4"/>
-    <sheet name="Waanzinnige woensdagen" sheetId="3" r:id="rId5"/>
-    <sheet name="Diewertje Blok leest voor" sheetId="4" r:id="rId6"/>
-    <sheet name="Deadline mail Inge" sheetId="2" r:id="rId7"/>
-    <sheet name="Yoga Molenlokaal" sheetId="6" r:id="rId8"/>
-    <sheet name="Miep Diesel" sheetId="7" r:id="rId9"/>
-    <sheet name="Coornhert" sheetId="8" r:id="rId10"/>
+    <sheet name="Cultuurtuin" sheetId="11" r:id="rId2"/>
+    <sheet name="Follow up" sheetId="10" r:id="rId3"/>
+    <sheet name="Participatiemarkt" sheetId="1" r:id="rId4"/>
+    <sheet name="SWT NOORD" sheetId="12" r:id="rId5"/>
+    <sheet name="Huiswerkbegeleiding" sheetId="13" r:id="rId6"/>
+    <sheet name="Vitrinekast CEN" sheetId="14" r:id="rId7"/>
+    <sheet name="Ghana Charity" sheetId="5" r:id="rId8"/>
+    <sheet name="Waanzinnige woensdagen" sheetId="3" r:id="rId9"/>
+    <sheet name="Diewertje Blok leest voor" sheetId="4" r:id="rId10"/>
+    <sheet name="Deadline mail Inge" sheetId="2" r:id="rId11"/>
+    <sheet name="Yoga Molenlokaal" sheetId="6" r:id="rId12"/>
+    <sheet name="Miep Diesel" sheetId="7" r:id="rId13"/>
+    <sheet name="Coornhert" sheetId="8" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Projectbespreken met Marcom en Facilitair</t>
   </si>
@@ -145,13 +149,145 @@
   </si>
   <si>
     <t>Diewertje Blok leest voor</t>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8 maart</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Project ervan maken (indeling markt verplaatsen kasten)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maatschappelijke stage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Koffie corner</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vrijwilligers voor eventuele flyeren</t>
+    </r>
+  </si>
+  <si>
+    <t>Willen we innoveren dan hebben we ruimte nodig</t>
+  </si>
+  <si>
+    <t>En kunnen we niet beperkt worden door wat er wordt vastgelegd.</t>
+  </si>
+  <si>
+    <t>Regina voorlezen op vrijdag / connectie met mensen op wachtlijst voorleesexpress</t>
+  </si>
+  <si>
+    <t>Printer SWT via bieb systeem printen..</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +302,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,15 +330,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -212,7 +359,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -510,83 +657,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3109D076-5B58-43E4-A950-210B56145C2B}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>44842</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
         <v>44628</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -597,6 +744,90 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990FBC71-2E94-4D20-9B80-FC1B0817A83C}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2">
+        <v>44842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BD44D8-C074-42AB-BA0F-8C7795DEDD19}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688846D0-0079-42A5-B8D7-B84254B25631}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BB61BD-F7B1-4348-8B7A-8F058D21BCE3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158F83A1-34C1-47D9-9AAD-8CF891FCF9AA}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -604,13 +835,27 @@
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C946D0-6819-4916-BD2D-A65A24B1AEC2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10A56B1-79DE-4B76-ADC2-096CA1370A80}">
   <dimension ref="B2:B4"/>
   <sheetViews>
@@ -618,19 +863,19 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -640,44 +885,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9F90C6-9CAD-41BE-BDF4-37263C53DD67}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" customWidth="1"/>
+    <col min="1" max="1" width="48.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>44993</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -685,43 +930,137 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD726DA-ED7D-4161-A5F9-A0B6CA9D2417}">
+  <dimension ref="A3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60DC6EF-86CA-4545-91FD-CE63663B9C41}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9419734-9126-41FA-B41C-9095E73ABF6A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C545208-6700-4DB5-9797-1D3CB9FF45DD}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -729,13 +1068,13 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405BC820-BF65-420E-819E-7B7165D76265}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -743,17 +1082,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -761,88 +1100,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990FBC71-2E94-4D20-9B80-FC1B0817A83C}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3">
-        <v>44842</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BD44D8-C074-42AB-BA0F-8C7795DEDD19}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688846D0-0079-42A5-B8D7-B84254B25631}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BB61BD-F7B1-4348-8B7A-8F058D21BCE3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>